--- a/Newproject/src/main/resources/Excel book1.xlsx
+++ b/Newproject/src/main/resources/Excel book1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C919A60A-64B2-436F-8457-3750DCFF51CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F85643C8-741E-462C-8D02-668204520585}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="23304" windowHeight="13224" xr2:uid="{599EE578-F49B-4FB1-9DE2-1BC2E4A0E584}"/>
+    <workbookView xWindow="3828" yWindow="3828" windowWidth="7500" windowHeight="6000" xr2:uid="{599EE578-F49B-4FB1-9DE2-1BC2E4A0E584}"/>
   </bookViews>
   <sheets>
     <sheet name="EXCELTESTDATASHEET" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -127,19 +127,73 @@
   </si>
   <si>
     <t>Python</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>CreateNewproductbyTeamselling</t>
+  </si>
+  <si>
+    <t>productname</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>Teamselling</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Supportgroupdd value</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Marketing Group</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>expeted  productname result</t>
+  </si>
+  <si>
+    <t>Product Information</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,9 +216,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB0C22A-B0E0-422B-AF6D-17BBE3E181CB}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,11 +548,11 @@
     <col min="1" max="1" width="17.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" style="2" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -504,11 +562,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -518,93 +576,155 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D13" s="1" t="s">
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="2" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
